--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="187">
   <si>
     <t>Property</t>
   </si>
@@ -42,13 +42,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Medication Rate Ratio DataType</t>
+    <t>JP Core Medication Rate Ratio DosePerDay DataType</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-03-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはRatio DataTypeに対して、日本の薬剤単位を割り当てた派生型である。単位時間内での薬剤の容量（体積）を記述する</t>
+    <t>このプロファイルはRatio  DataTypeに対して、日本の薬剤単位を割り当てた派生型である。単位時間内での薬剤の容量（体積）を記述する</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>１日当たりでの薬剤の容量（体積）</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+    <t>１日当たりでの薬剤の投入量</t>
+  </si>
+  <si>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -332,7 +332,7 @@
 </t>
   </si>
   <si>
-    <t>投与量（体積）</t>
+    <t>投与量</t>
   </si>
   <si>
     <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -426,10 +426,10 @@
     <t>Ratio.numerator.unit</t>
   </si>
   <si>
-    <t>投与量（体積）の単位</t>
-  </si>
-  <si>
-    <t>投与量（体積）の単位。</t>
+    <t>投与量の単位</t>
+  </si>
+  <si>
+    <t>投与量の単位。</t>
   </si>
   <si>
     <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
@@ -555,37 +555,40 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>日</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Ratio.denominator.system</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Ratio.denominator.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
-    <t>Ratio.denominator.system</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。固定値。</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Ratio.denominator.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
 </sst>
 </file>
@@ -2797,11 +2800,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -2842,7 +2847,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2868,21 +2873,21 @@
         <v>140</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>74</v>
@@ -2900,11 +2905,13 @@
         <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>74</v>
@@ -3005,13 +3012,11 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはRatio  DataTypeに対して、日本の薬剤単位を割り当てた派生型である。単位時間内での薬剤の容量（体積）を記述する</t>
+    <t>このプロファイルはRatio  DataTypeに対して、日本の薬剤単位を割り当てた派生型である。単位時間内での薬剤の容量を記述する</t>
   </si>
   <si>
     <t>Purpose</t>
